--- a/Spectrum/target/test-classes/SpectrumExcel.xlsx
+++ b/Spectrum/target/test-classes/SpectrumExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sujon</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Dress</t>
+  </si>
+  <si>
+    <t>Electronics</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,6 +432,11 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
